--- a/System_development/magnet_design/A645_Tesla_magnet/A645_BillofMaterials.xlsx
+++ b/System_development/magnet_design/A645_Tesla_magnet/A645_BillofMaterials.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\OneDrive - Georgia Southern University\Desktop\USC-1stSemester\NMR\Compact-NMR\System_development\magnet_design\A645_Tesla_magnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81DD3B-B612-4836-8BD5-4C08C82F5753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8BE24C-7197-498B-88EF-F2495C1D19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BillofMaterials" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -81,6 +81,42 @@
   </si>
   <si>
     <t>N42 Disc Magnet</t>
+  </si>
+  <si>
+    <t>Enamel Transparent Paint</t>
+  </si>
+  <si>
+    <t>RUST-OLEUM, Std Spray Paints, Rust Preventative, Rust Preventative Spray Paint - 42PR84|7701830 - Grainger</t>
+  </si>
+  <si>
+    <t>Tape: 3/4 in Wd, 60 yd Lg, 5.1 mil Thick, Blue, 2 wk Clean Removal Time</t>
+  </si>
+  <si>
+    <t>Rust Preventative Spray Paint: Std Spray Paints, Rust Preventative, Clear, Metal/Wood</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/497C31?RIID=51819294775&amp;GID=729415832&amp;mid=OrderConfirmation_REST&amp;rfe=a940e6396979204dd9fe544a24bf20a946fd7e842914375af6c5abe69a0e9329&amp;gucid=EMT:11126144:Item:CSM-323&amp;emcid=NA:Item</t>
+  </si>
+  <si>
+    <t>Painter Tape</t>
+  </si>
+  <si>
+    <t>SUPER LUBE Heat Conducting Compound</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/44N787?RIID=51819294775&amp;GID=729415832&amp;mid=OrderConfirmation_REST&amp;rfe=51ff89d725d9983abe9d56dae850c72e38f90675fc5b6639ca64d74c4ae82543&amp;gucid=EMT:11126144:Item:CSM-323&amp;emcid=NA:Item</t>
+  </si>
+  <si>
+    <t>Dielectric Grease</t>
+  </si>
+  <si>
+    <t>HDPE Sheet</t>
+  </si>
+  <si>
+    <t>0.5 in Thick, 12 in x 24 in, Opaque, Off-White</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/HDPE-Sheet-0-5-in-Thick-22JM75?opr=ODOH&amp;analytics=FM:Order%20History</t>
   </si>
 </sst>
 </file>
@@ -976,14 +1012,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
@@ -1067,16 +1103,85 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17.91</v>
+      </c>
+      <c r="E5" s="4">
+        <v>17.91</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="E6" s="3">
+        <f>D6*C6</f>
+        <v>10.98</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="3"/>
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>29.76</v>
+      </c>
+      <c r="E8" s="4">
+        <v>29.76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9" s="3"/>
@@ -1112,6 +1217,10 @@
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" xr:uid="{18F59033-E47A-4A2C-B2B3-B9D01C8BE5B2}"/>
+    <hyperlink ref="F5" r:id="rId2" display="https://www.grainger.com/product/42PR84?RIID=51819294775&amp;GID=729415832&amp;mid=OrderConfirmation_REST&amp;rfe=a940e6396979204dd9fe544a24bf20a946fd7e842914375af6c5abe69a0e9329&amp;gucid=EMT:11126144:Item:CSM-323&amp;emcid=NA:Item" xr:uid="{D5DFF887-B0A0-41D6-BC15-1A39AA9B94A1}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{31949AA5-46D9-481A-9CE2-E71128B43548}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{F0F72660-1ACA-4E4A-9485-D726524E371A}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{C00EA188-A35F-4C4D-BF7E-4D0578E6B0B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System_development/magnet_design/A645_Tesla_magnet/A645_BillofMaterials.xlsx
+++ b/System_development/magnet_design/A645_Tesla_magnet/A645_BillofMaterials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usman\OneDrive - Georgia Southern University\Desktop\USC-1stSemester\NMR\Compact-NMR\System_development\magnet_design\A645_Tesla_magnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8BE24C-7197-498B-88EF-F2495C1D19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A76EBBD-3AF9-4816-B2AD-07400A096807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>BILL OF MATERIALS</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>https://www.grainger.com/product/HDPE-Sheet-0-5-in-Thick-22JM75?opr=ODOH&amp;analytics=FM:Order%20History</t>
+  </si>
+  <si>
+    <t>0.125 in Thick, 12 in x 24 in, Opaque, Off-White</t>
+  </si>
+  <si>
+    <t>https://www.grainger.com/product/1ZAH9?RIID=51819294775&amp;GID=729415832&amp;mid=OrderConfirmation_REST&amp;rfe=702409156c4ad209c3e5d4ab8dbeaccacf86bcc7bd495f2916140c14c90db510&amp;gucid=EMT:11126144:Item:CSM-323&amp;emcid=NA:Item</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1019,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1190,24 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E9" s="4">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" s="3"/>
@@ -1221,6 +1244,7 @@
     <hyperlink ref="F6" r:id="rId3" xr:uid="{31949AA5-46D9-481A-9CE2-E71128B43548}"/>
     <hyperlink ref="F7" r:id="rId4" xr:uid="{F0F72660-1ACA-4E4A-9485-D726524E371A}"/>
     <hyperlink ref="F8" r:id="rId5" xr:uid="{C00EA188-A35F-4C4D-BF7E-4D0578E6B0B0}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{E9C17141-238C-4F6E-9CD3-5A272872E047}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
